--- a/01_Studnie/v1. pliki źródłowe/tekst.xlsx
+++ b/01_Studnie/v1. pliki źródłowe/tekst.xlsx
@@ -5,30 +5,44 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://texoanalytics-my.sharepoint.com/personal/bz_texo-analytics_com/Documents/Documents/GitHub/ProjektyDCN/01_Studnie/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BT\Documents\GitHub\ProjektyDCN\01_Studnie\v1. pliki źródłowe\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="195" documentId="11_F25DC773A252ABDACC104831C19948F05BDE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{55D7B3A1-19C4-4196-BBDA-BC49C700EB21}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9F97993-CD50-45C4-BEA2-EDE3877E0362}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Studnie" sheetId="1" r:id="rId1"/>
+    <sheet name="Otwory" sheetId="3" r:id="rId2"/>
+    <sheet name="Zestawienie_Studni" sheetId="2" r:id="rId3"/>
+    <sheet name="Zestawienie_otworów" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$F$27</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Studnie!$A$1:$G$28</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="99">
   <si>
     <t>Property Type</t>
   </si>
@@ -159,9 +173,6 @@
     <t>Szerokość pokrywy dostępu do komory, w której kształt planu pokrywy nie jest okrągły.</t>
   </si>
   <si>
-    <t>Wartości/ Jednostki</t>
-  </si>
-  <si>
     <t>mm</t>
   </si>
   <si>
@@ -268,6 +279,66 @@
   </si>
   <si>
     <t>dołożone przez DCN</t>
+  </si>
+  <si>
+    <t>Jednostki</t>
+  </si>
+  <si>
+    <t>Wartość</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>STUD-1</t>
+  </si>
+  <si>
+    <t>STUD-2</t>
+  </si>
+  <si>
+    <t>STUD-4</t>
+  </si>
+  <si>
+    <t>STUD-3</t>
+  </si>
+  <si>
+    <t>STUD-5</t>
+  </si>
+  <si>
+    <t>Otwory</t>
+  </si>
+  <si>
+    <t>wlot</t>
+  </si>
+  <si>
+    <t>ID studnia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Otwór </t>
+  </si>
+  <si>
+    <t>o-1</t>
+  </si>
+  <si>
+    <t>Typ</t>
+  </si>
+  <si>
+    <t>o1,o2,o3…</t>
+  </si>
+  <si>
+    <t>ID studni</t>
+  </si>
+  <si>
+    <t>ID otworu</t>
+  </si>
+  <si>
+    <t>WYLOT-1</t>
+  </si>
+  <si>
+    <t>WYLOT-2</t>
+  </si>
+  <si>
+    <t>WYLOT-3</t>
   </si>
 </sst>
 </file>
@@ -354,7 +425,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -405,12 +476,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -454,6 +536,15 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -476,14 +567,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>555625</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>3438525</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>3305175</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>21370</xdr:rowOff>
     </xdr:to>
@@ -804,55 +895,55 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:F28"/>
+  <dimension ref="A2:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F27" sqref="A8:F27"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.54296875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="26.90625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="27.26953125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="38.36328125" style="1" customWidth="1"/>
-    <col min="5" max="6" width="49.54296875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="33.1796875" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.7265625" style="1"/>
+    <col min="1" max="1" width="30.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="26.85546875" style="1" customWidth="1"/>
+    <col min="3" max="4" width="27.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="38.42578125" style="1" customWidth="1"/>
+    <col min="6" max="7" width="49.5703125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="33.140625" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="E2" s="3" t="s">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="1" t="s">
+      <c r="F3" s="3"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="E3" s="3"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="5" t="s">
+      <c r="F4" s="3"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="E4" s="3"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="E5" s="3"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="E6" s="3"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F6" s="3"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>0</v>
@@ -860,315 +951,329 @@
       <c r="C8" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D8" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="E8" s="6" t="s">
+      <c r="D8" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F8" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F8" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="31" x14ac:dyDescent="0.55000000000000004">
+      <c r="G8" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+    </row>
+    <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.3">
+      <c r="A10" s="8" t="s">
         <v>3</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="31" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="11" t="s">
-        <v>6</v>
       </c>
       <c r="B10" s="9" t="s">
         <v>4</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="31" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="8" t="s">
-        <v>8</v>
+        <v>66</v>
+      </c>
+      <c r="D10" s="17">
+        <v>3000</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="30" x14ac:dyDescent="0.3">
+      <c r="A11" s="11" t="s">
+        <v>6</v>
       </c>
       <c r="B11" s="9" t="s">
         <v>4</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F11" s="10" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="31" x14ac:dyDescent="0.55000000000000004">
+        <v>66</v>
+      </c>
+      <c r="D11" s="9"/>
+      <c r="E11" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="30" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B12" s="9" t="s">
         <v>4</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="E12" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D12" s="9"/>
+      <c r="E12" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="30" x14ac:dyDescent="0.3">
+      <c r="A13" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D13" s="9"/>
+      <c r="E13" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="F12" s="10" t="s">
+      <c r="G13" s="10" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="46.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="11" t="s">
+    <row r="14" spans="1:7" ht="45" x14ac:dyDescent="0.3">
+      <c r="A14" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B14" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="E13" s="9" t="s">
+      <c r="C14" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="D14" s="9"/>
+      <c r="E14" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="F14" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F13" s="10" t="s">
+      <c r="G14" s="10" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="46.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="8" t="s">
+    <row r="15" spans="1:7" ht="45" x14ac:dyDescent="0.3">
+      <c r="A15" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B15" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="E14" s="9" t="s">
+      <c r="C15" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="D15" s="9"/>
+      <c r="E15" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="F14" s="10" t="s">
+      <c r="G15" s="10" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="46.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="11" t="s">
+    <row r="16" spans="1:7" ht="45" x14ac:dyDescent="0.3">
+      <c r="A16" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B16" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="E15" s="9" t="s">
+      <c r="C16" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="D16" s="9"/>
+      <c r="E16" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="F16" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="F15" s="10" t="s">
+      <c r="G16" s="10" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="46.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="8" t="s">
+    <row r="17" spans="1:7" ht="45" x14ac:dyDescent="0.3">
+      <c r="A17" s="8" t="s">
         <v>19</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F16" s="10" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="31" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="11" t="s">
-        <v>21</v>
       </c>
       <c r="B17" s="9" t="s">
         <v>4</v>
       </c>
       <c r="C17" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="D17" s="9"/>
+      <c r="E17" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G17" s="10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="30" x14ac:dyDescent="0.3">
+      <c r="A18" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="E17" s="9" t="s">
+      <c r="D18" s="9"/>
+      <c r="E18" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="F18" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="F17" s="10" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="62" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="11" t="s">
+      <c r="G18" s="10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="60" x14ac:dyDescent="0.3">
+      <c r="A19" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B19" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="E18" s="9" t="s">
+      <c r="C19" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="D19" s="9"/>
+      <c r="E19" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="F19" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="F18" s="10" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="31" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="8" t="s">
+      <c r="G19" s="10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="30" x14ac:dyDescent="0.3">
+      <c r="A20" s="8" t="s">
         <v>26</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="D19" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="E19" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="F19" s="10" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="31" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="11" t="s">
-        <v>28</v>
       </c>
       <c r="B20" s="9" t="s">
         <v>4</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="D20" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="E20" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="D20" s="9"/>
+      <c r="E20" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G20" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="30" x14ac:dyDescent="0.3">
+      <c r="A21" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="D21" s="9"/>
+      <c r="E21" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="F20" s="10" t="s">
+      <c r="G21" s="10" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="46.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="11" t="s">
+    <row r="22" spans="1:7" ht="45" x14ac:dyDescent="0.3">
+      <c r="A22" s="11" t="s">
         <v>30</v>
-      </c>
-      <c r="B21" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C21" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="D21" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="E21" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="F21" s="10" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="13" t="s">
-        <v>51</v>
       </c>
       <c r="B22" s="12" t="s">
         <v>4</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="D22" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="E22" s="9"/>
-      <c r="F22" s="10" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="31" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="14" t="s">
-        <v>53</v>
+        <v>31</v>
+      </c>
+      <c r="D22" s="12"/>
+      <c r="E22" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="G22" s="10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="13" t="s">
+        <v>50</v>
       </c>
       <c r="B23" s="12" t="s">
         <v>4</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="D23" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="E23" s="9"/>
-      <c r="F23" s="10" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>66</v>
+      </c>
+      <c r="D23" s="12"/>
+      <c r="E23" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F23" s="9"/>
+      <c r="G23" s="10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="30" x14ac:dyDescent="0.3">
       <c r="A24" s="14" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B24" s="12" t="s">
         <v>4</v>
@@ -1176,17 +1281,18 @@
       <c r="C24" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="D24" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="E24" s="15"/>
-      <c r="F24" s="10" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="D24" s="12"/>
+      <c r="E24" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="F24" s="9"/>
+      <c r="G24" s="10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="14" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B25" s="12" t="s">
         <v>4</v>
@@ -1194,63 +1300,376 @@
       <c r="C25" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="D25" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="E25" s="15"/>
-      <c r="F25" s="10" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="D25" s="12"/>
+      <c r="E25" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="F25" s="15"/>
+      <c r="G25" s="10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="14" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B26" s="12" t="s">
         <v>4</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="D26" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="E26" s="15"/>
-      <c r="F26" s="10" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="46.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="16" t="s">
-        <v>66</v>
+        <v>31</v>
+      </c>
+      <c r="D26" s="12"/>
+      <c r="E26" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="F26" s="15"/>
+      <c r="G26" s="10" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="14" t="s">
+        <v>61</v>
       </c>
       <c r="B27" s="12" t="s">
         <v>4</v>
       </c>
       <c r="C27" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D27" s="12"/>
+      <c r="E27" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="F27" s="15"/>
+      <c r="G27" s="10" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="45" x14ac:dyDescent="0.3">
+      <c r="A28" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C28" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="D27" s="10" t="s">
+      <c r="D28" s="12"/>
+      <c r="E28" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="F28" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="E27" s="9" t="s">
+      <c r="G28" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="F27" s="10" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="D28" s="2"/>
-      <c r="F28" s="2"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E29" s="2"/>
+      <c r="G29" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" xr:uid="{6183636E-2633-40A0-94B1-C7692C3F5647}"/>
+    <hyperlink ref="F2" r:id="rId1" xr:uid="{6183636E-2633-40A0-94B1-C7692C3F5647}"/>
   </hyperlinks>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="60" orientation="landscape" verticalDpi="0" r:id="rId2"/>
+  <pageSetup paperSize="9" scale="57" orientation="landscape" verticalDpi="4294967293" r:id="rId2"/>
   <drawing r:id="rId3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2714233-993F-4C9B-8B24-C807A312DF25}">
+  <dimension ref="A3:B11"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.140625" customWidth="1"/>
+    <col min="2" max="2" width="7.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13F3BEAF-4C70-4BDF-990B-EC7D211C6D39}">
+  <dimension ref="A1:U5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="U2" sqref="U1:U2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="11.140625" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" customWidth="1"/>
+    <col min="7" max="7" width="14.140625" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" customWidth="1"/>
+    <col min="21" max="21" width="10.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="K1" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="M1" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="N1" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="O1" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="P1" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q1" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="R1" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="S1" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="T1" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="U1" s="19" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>82</v>
+      </c>
+      <c r="U2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83898226-07C1-40D8-A0B0-3EBB9154117C}">
+  <dimension ref="A1:I7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" customWidth="1"/>
+    <col min="6" max="6" width="12" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" customWidth="1"/>
+    <col min="8" max="8" width="11.7109375" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>98</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+</worksheet>
 </file>
--- a/01_Studnie/v1. pliki źródłowe/tekst.xlsx
+++ b/01_Studnie/v1. pliki źródłowe/tekst.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BT\Documents\GitHub\ProjektyDCN\01_Studnie\v1. pliki źródłowe\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://texoanalytics-my.sharepoint.com/personal/bz_texo-analytics_com/Documents/Documents/GitHub/ProjektyDCN/01_Studnie/v1. pliki źródłowe/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9F97993-CD50-45C4-BEA2-EDE3877E0362}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="165" documentId="13_ncr:1_{E9F97993-CD50-45C4-BEA2-EDE3877E0362}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E45BA90C-C7BE-458C-B943-5C7DFAE11738}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Studnie" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,6 @@
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -42,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="123">
   <si>
     <t>Property Type</t>
   </si>
@@ -284,9 +283,6 @@
     <t>Jednostki</t>
   </si>
   <si>
-    <t>Wartość</t>
-  </si>
-  <si>
     <t>ID</t>
   </si>
   <si>
@@ -308,30 +304,6 @@
     <t>Otwory</t>
   </si>
   <si>
-    <t>wlot</t>
-  </si>
-  <si>
-    <t>ID studnia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Otwór </t>
-  </si>
-  <si>
-    <t>o-1</t>
-  </si>
-  <si>
-    <t>Typ</t>
-  </si>
-  <si>
-    <t>o1,o2,o3…</t>
-  </si>
-  <si>
-    <t>ID studni</t>
-  </si>
-  <si>
-    <t>ID otworu</t>
-  </si>
-  <si>
     <t>WYLOT-1</t>
   </si>
   <si>
@@ -339,13 +311,117 @@
   </si>
   <si>
     <t>WYLOT-3</t>
+  </si>
+  <si>
+    <t>Przykładowa Wartość</t>
+  </si>
+  <si>
+    <t>concrete</t>
+  </si>
+  <si>
+    <t>metal</t>
+  </si>
+  <si>
+    <t>A15</t>
+  </si>
+  <si>
+    <t>flat</t>
+  </si>
+  <si>
+    <t>seal</t>
+  </si>
+  <si>
+    <t>coated</t>
+  </si>
+  <si>
+    <t>flase</t>
+  </si>
+  <si>
+    <t>C35/45</t>
+  </si>
+  <si>
+    <t>IDStudni</t>
+  </si>
+  <si>
+    <t>KlasaSN</t>
+  </si>
+  <si>
+    <t>Parametry otworów  bazujące na IfcPort</t>
+  </si>
+  <si>
+    <t>FlowDirection</t>
+  </si>
+  <si>
+    <t>Enumeration that identifies if this port is a Sink (inlet), a Source (outlet) or both a SinkAndSource.</t>
+  </si>
+  <si>
+    <t>PortNumber</t>
+  </si>
+  <si>
+    <t>Diameter</t>
+  </si>
+  <si>
+    <t>The Diameter of the object</t>
+  </si>
+  <si>
+    <t>Kąt mierzony od wylotu (wylot =0)</t>
+  </si>
+  <si>
+    <t>średnica rury</t>
+  </si>
+  <si>
+    <t>DistanceToInvertLevel</t>
+  </si>
+  <si>
+    <t>Angle</t>
+  </si>
+  <si>
+    <t>IfcPositiveDegreeMeasure</t>
+  </si>
+  <si>
+    <t>ActualPortDiameter</t>
+  </si>
+  <si>
+    <t>2,4,8</t>
+  </si>
+  <si>
+    <t>deg</t>
+  </si>
+  <si>
+    <t>Rzeczywista średnica otworu</t>
+  </si>
+  <si>
+    <t>Numer otworu indywidualny dla studni</t>
+  </si>
+  <si>
+    <t>Indywidualny identyfikator opisywanej studni</t>
+  </si>
+  <si>
+    <t>SINK = wlot
+SOURCE = wylot</t>
+  </si>
+  <si>
+    <t>SINK
+SOURCE</t>
+  </si>
+  <si>
+    <t>lekkia (SN = 2 kPa), DN 110–400 mm,
+średnia (SN = 4 kPa ), DN 110–400 mm,
+ciężka (SN = 8 kPa), DN 110–400 mm.</t>
+  </si>
+  <si>
+    <t>Indywidualny identyfikator opisywanej studni. 
+Nawet jeśli studnie sa identyczne to powinny mieć indywidualne identyfikatory</t>
+  </si>
+  <si>
+    <t>Odległość od dna studni do osi otworu</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -404,8 +480,37 @@
       <name val="Open Sans"/>
       <charset val="238"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Open Sans"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="4" tint="-0.249977111117893"/>
+      <name val="Open Sans"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Open Sans"/>
+      <charset val="238"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -424,8 +529,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -476,23 +587,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="hair">
-        <color auto="1"/>
-      </left>
-      <right style="hair">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -537,13 +637,29 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -574,7 +690,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>3305175</xdr:colOff>
+      <xdr:colOff>3302000</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>21370</xdr:rowOff>
     </xdr:to>
@@ -897,22 +1013,22 @@
   </sheetPr>
   <dimension ref="A2:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView topLeftCell="A14" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="30.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="26.85546875" style="1" customWidth="1"/>
-    <col min="3" max="4" width="27.28515625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="38.42578125" style="1" customWidth="1"/>
-    <col min="6" max="7" width="49.5703125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="33.140625" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.7109375" style="1"/>
+    <col min="1" max="1" width="30.54296875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="26.81640625" style="1" customWidth="1"/>
+    <col min="3" max="4" width="27.26953125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="38.453125" style="1" customWidth="1"/>
+    <col min="6" max="7" width="49.54296875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="33.1796875" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1" t="s">
         <v>74</v>
       </c>
@@ -920,28 +1036,28 @@
         <v>75</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1" t="s">
         <v>76</v>
       </c>
       <c r="F3" s="3"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="5" t="s">
         <v>77</v>
       </c>
       <c r="F4" s="3"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="4" t="s">
         <v>78</v>
       </c>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="F6" s="3"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="6" t="s">
         <v>69</v>
       </c>
@@ -952,7 +1068,7 @@
         <v>1</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>79</v>
@@ -964,20 +1080,24 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="8" t="s">
+    <row r="9" spans="1:7" ht="46.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-    </row>
-    <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.3">
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="31" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="8" t="s">
         <v>3</v>
       </c>
@@ -1000,7 +1120,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="30" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="31" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="11" t="s">
         <v>6</v>
       </c>
@@ -1010,7 +1130,7 @@
       <c r="C11" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="D11" s="9"/>
+      <c r="D11" s="17"/>
       <c r="E11" s="10" t="s">
         <v>43</v>
       </c>
@@ -1021,7 +1141,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="30" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="31" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="8" t="s">
         <v>8</v>
       </c>
@@ -1031,7 +1151,9 @@
       <c r="C12" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="D12" s="9"/>
+      <c r="D12" s="17">
+        <v>-3.5</v>
+      </c>
       <c r="E12" s="10" t="s">
         <v>44</v>
       </c>
@@ -1042,7 +1164,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="30" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="31" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="8" t="s">
         <v>10</v>
       </c>
@@ -1052,7 +1174,9 @@
       <c r="C13" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="D13" s="9"/>
+      <c r="D13" s="17">
+        <v>-1</v>
+      </c>
       <c r="E13" s="10" t="s">
         <v>44</v>
       </c>
@@ -1063,7 +1187,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="45" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="46.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="11" t="s">
         <v>12</v>
       </c>
@@ -1073,7 +1197,9 @@
       <c r="C14" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="D14" s="9"/>
+      <c r="D14" s="17" t="s">
+        <v>91</v>
+      </c>
       <c r="E14" s="10" t="s">
         <v>56</v>
       </c>
@@ -1084,7 +1210,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="45" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="46.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="8" t="s">
         <v>15</v>
       </c>
@@ -1094,7 +1220,9 @@
       <c r="C15" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="D15" s="9"/>
+      <c r="D15" s="17">
+        <v>150</v>
+      </c>
       <c r="E15" s="10" t="s">
         <v>43</v>
       </c>
@@ -1105,7 +1233,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="45" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="46.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="11" t="s">
         <v>17</v>
       </c>
@@ -1115,7 +1243,9 @@
       <c r="C16" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="D16" s="9"/>
+      <c r="D16" s="17" t="s">
+        <v>91</v>
+      </c>
       <c r="E16" s="10" t="s">
         <v>56</v>
       </c>
@@ -1126,7 +1256,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="45" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="46.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="8" t="s">
         <v>19</v>
       </c>
@@ -1136,7 +1266,9 @@
       <c r="C17" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="D17" s="9"/>
+      <c r="D17" s="17">
+        <v>200</v>
+      </c>
       <c r="E17" s="10" t="s">
         <v>43</v>
       </c>
@@ -1147,7 +1279,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="30" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" ht="31" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="11" t="s">
         <v>21</v>
       </c>
@@ -1157,7 +1289,9 @@
       <c r="C18" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D18" s="9"/>
+      <c r="D18" s="18" t="s">
+        <v>97</v>
+      </c>
       <c r="E18" s="12" t="s">
         <v>45</v>
       </c>
@@ -1168,7 +1302,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="60" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" ht="62" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="11" t="s">
         <v>24</v>
       </c>
@@ -1178,7 +1312,9 @@
       <c r="C19" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="D19" s="9"/>
+      <c r="D19" s="17" t="s">
+        <v>92</v>
+      </c>
       <c r="E19" s="10" t="s">
         <v>56</v>
       </c>
@@ -1189,7 +1325,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="30" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" ht="31" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="8" t="s">
         <v>26</v>
       </c>
@@ -1199,7 +1335,9 @@
       <c r="C20" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="D20" s="9"/>
+      <c r="D20" s="17">
+        <v>600</v>
+      </c>
       <c r="E20" s="10" t="s">
         <v>43</v>
       </c>
@@ -1210,7 +1348,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="30" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" ht="31" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="11" t="s">
         <v>28</v>
       </c>
@@ -1220,7 +1358,7 @@
       <c r="C21" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="D21" s="9"/>
+      <c r="D21" s="17"/>
       <c r="E21" s="10" t="s">
         <v>43</v>
       </c>
@@ -1231,7 +1369,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="45" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" ht="46.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="11" t="s">
         <v>30</v>
       </c>
@@ -1241,7 +1379,9 @@
       <c r="C22" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="D22" s="12"/>
+      <c r="D22" s="18" t="s">
+        <v>93</v>
+      </c>
       <c r="E22" s="10" t="s">
         <v>47</v>
       </c>
@@ -1252,7 +1392,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="13" t="s">
         <v>50</v>
       </c>
@@ -1262,7 +1402,9 @@
       <c r="C23" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="D23" s="12"/>
+      <c r="D23" s="18">
+        <v>0</v>
+      </c>
       <c r="E23" s="10" t="s">
         <v>43</v>
       </c>
@@ -1271,7 +1413,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="30" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" ht="31" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="14" t="s">
         <v>52</v>
       </c>
@@ -1281,7 +1423,9 @@
       <c r="C24" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="D24" s="12"/>
+      <c r="D24" s="18" t="s">
+        <v>94</v>
+      </c>
       <c r="E24" s="10" t="s">
         <v>53</v>
       </c>
@@ -1290,7 +1434,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="14" t="s">
         <v>57</v>
       </c>
@@ -1300,7 +1444,9 @@
       <c r="C25" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="D25" s="12"/>
+      <c r="D25" s="18" t="s">
+        <v>95</v>
+      </c>
       <c r="E25" s="10" t="s">
         <v>58</v>
       </c>
@@ -1309,7 +1455,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="14" t="s">
         <v>60</v>
       </c>
@@ -1319,7 +1465,9 @@
       <c r="C26" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="D26" s="12"/>
+      <c r="D26" s="18" t="s">
+        <v>96</v>
+      </c>
       <c r="E26" s="10" t="s">
         <v>62</v>
       </c>
@@ -1328,7 +1476,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="14" t="s">
         <v>61</v>
       </c>
@@ -1338,7 +1486,9 @@
       <c r="C27" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="12"/>
+      <c r="D27" s="18" t="s">
+        <v>97</v>
+      </c>
       <c r="E27" s="10" t="s">
         <v>45</v>
       </c>
@@ -1347,7 +1497,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="45" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" ht="46.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="16" t="s">
         <v>65</v>
       </c>
@@ -1357,7 +1507,9 @@
       <c r="C28" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="D28" s="12"/>
+      <c r="D28" s="18" t="s">
+        <v>98</v>
+      </c>
       <c r="E28" s="10" t="s">
         <v>71</v>
       </c>
@@ -1368,9 +1520,9 @@
         <v>73</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E29" s="2"/>
       <c r="G29" s="2"/>
@@ -1388,182 +1540,421 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2714233-993F-4C9B-8B24-C807A312DF25}">
-  <dimension ref="A3:B11"/>
+  <dimension ref="A3:G13"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.140625" customWidth="1"/>
-    <col min="2" max="2" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.08984375" customWidth="1"/>
+    <col min="2" max="5" width="31.90625" customWidth="1"/>
+    <col min="6" max="6" width="42.1796875" customWidth="1"/>
+    <col min="7" max="7" width="37.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="1:7" ht="18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="B3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>89</v>
-      </c>
-      <c r="B4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>92</v>
-      </c>
-      <c r="B5" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
-        <v>19</v>
+      <c r="E5" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="31" x14ac:dyDescent="0.35">
+      <c r="A7" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14" t="s">
+        <v>115</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A6" r:id="rId1" display="https://search.bsdd.buildingsmart.org/ClassificationProperty/Index/454277" xr:uid="{5D5EDC57-6896-4882-8EE2-2D3BEDAA57EE}"/>
+    <hyperlink ref="A9" r:id="rId2" display="https://search.bsdd.buildingsmart.org/Property/Index/116738" xr:uid="{2921D386-C856-46AC-8B9D-F8ACB0E49652}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13F3BEAF-4C70-4BDF-990B-EC7D211C6D39}">
-  <dimension ref="A1:U5"/>
+  <dimension ref="A1:T6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="U2" sqref="U1:U2"/>
+      <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="4" max="4" width="11.140625" customWidth="1"/>
-    <col min="5" max="5" width="10.5703125" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" customWidth="1"/>
-    <col min="7" max="7" width="14.140625" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" customWidth="1"/>
-    <col min="21" max="21" width="10.5703125" customWidth="1"/>
+    <col min="1" max="1" width="7.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.08984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.90625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.90625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.90625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.90625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.7265625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="22.453125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.453125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.90625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="45" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:20" s="21" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="K1" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="M1" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="N1" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="O1" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="P1" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q1" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="R1" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="S1" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="T1" s="24" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="B1" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="J1" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="K1" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="L1" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="M1" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="N1" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="O1" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="P1" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q1" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="R1" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="S1" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="T1" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="U1" s="19" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="16"/>
+      <c r="P2" s="16"/>
+      <c r="Q2" s="16"/>
+      <c r="R2" s="16"/>
+      <c r="S2" s="16"/>
+      <c r="T2" s="16"/>
+    </row>
+    <row r="3" spans="1:20" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="U2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="16"/>
+      <c r="O3" s="16"/>
+      <c r="P3" s="16"/>
+      <c r="Q3" s="16"/>
+      <c r="R3" s="16"/>
+      <c r="S3" s="16"/>
+      <c r="T3" s="16"/>
+    </row>
+    <row r="4" spans="1:20" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="16"/>
+      <c r="N4" s="16"/>
+      <c r="O4" s="16"/>
+      <c r="P4" s="16"/>
+      <c r="Q4" s="16"/>
+      <c r="R4" s="16"/>
+      <c r="S4" s="16"/>
+      <c r="T4" s="16"/>
+    </row>
+    <row r="5" spans="1:20" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="16"/>
+      <c r="N5" s="16"/>
+      <c r="O5" s="16"/>
+      <c r="P5" s="16"/>
+      <c r="Q5" s="16"/>
+      <c r="R5" s="16"/>
+      <c r="S5" s="16"/>
+      <c r="T5" s="16"/>
+    </row>
+    <row r="6" spans="1:20" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="16" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>86</v>
-      </c>
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="16"/>
+      <c r="N6" s="16"/>
+      <c r="O6" s="16"/>
+      <c r="P6" s="16"/>
+      <c r="Q6" s="16"/>
+      <c r="R6" s="16"/>
+      <c r="S6" s="16"/>
+      <c r="T6" s="16"/>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
@@ -1573,103 +1964,141 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83898226-07C1-40D8-A0B0-3EBB9154117C}">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" customWidth="1"/>
-    <col min="6" max="6" width="12" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" customWidth="1"/>
-    <col min="8" max="8" width="11.7109375" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" customWidth="1"/>
+    <col min="1" max="1" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.6328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.54296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B1" s="18" t="s">
-        <v>95</v>
-      </c>
-      <c r="C1" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+    <row r="1" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="C1" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="D1" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="E1" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="F1" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="G1" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="H1" s="23" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="C2" s="9"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="9"/>
+    </row>
+    <row r="3" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="C3" s="9"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="9"/>
+    </row>
+    <row r="4" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="B4" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="B2" s="18" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="s">
-        <v>82</v>
-      </c>
-      <c r="B3" s="18" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="18" t="s">
-        <v>83</v>
-      </c>
-      <c r="B4" s="18" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="B5" s="18" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="B6" s="18" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="B7" s="18" t="s">
-        <v>98</v>
-      </c>
+      <c r="C4" s="9"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="9"/>
+    </row>
+    <row r="5" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="C5" s="9"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="9"/>
+    </row>
+    <row r="6" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="C6" s="9"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="9"/>
+    </row>
+    <row r="7" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="C7" s="9"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1" display="https://search.bsdd.buildingsmart.org/ClassificationProperty/Index/454277" xr:uid="{4C5D544B-6F57-4FBC-A383-3BD5FC77DFD4}"/>
+    <hyperlink ref="D1" r:id="rId2" display="https://search.bsdd.buildingsmart.org/Property/Index/116738" xr:uid="{E24586D6-139B-41AA-9385-5EBFE7FB6C5D}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId3"/>
 </worksheet>
 </file>